--- a/data/trans_orig/P6708-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P6708-Clase-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>6910</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2856</v>
+        <v>2949</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13515</v>
+        <v>13993</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02289221891681807</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.009462699693454065</v>
+        <v>0.009770344555352504</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04477326636876121</v>
+        <v>0.04635929927981542</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -764,19 +764,19 @@
         <v>8495</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3824</v>
+        <v>3603</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>17414</v>
+        <v>17128</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04369395525387974</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01966874591803472</v>
+        <v>0.01853503848412108</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08957256367209443</v>
+        <v>0.08810126541416653</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>14</v>
@@ -785,19 +785,19 @@
         <v>15405</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>8951</v>
+        <v>8576</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>24119</v>
+        <v>25579</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03104150684054137</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01803755578371785</v>
+        <v>0.01728205238599323</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04860242451182209</v>
+        <v>0.0515433160506112</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>4187</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>937</v>
+        <v>946</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>11951</v>
+        <v>13633</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01387171168771916</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.003105348831157571</v>
+        <v>0.003135108085493342</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03959386026181266</v>
+        <v>0.04516571795887966</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>11</v>
@@ -835,19 +835,19 @@
         <v>11137</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>6146</v>
+        <v>5997</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>19822</v>
+        <v>18691</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05728525207240588</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03161162827210778</v>
+        <v>0.03084685182370969</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1019571260397872</v>
+        <v>0.09613950953375303</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>14</v>
@@ -856,19 +856,19 @@
         <v>15324</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>9121</v>
+        <v>9118</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>27255</v>
+        <v>25240</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03087939963503095</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01837871052620932</v>
+        <v>0.01837262246427204</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05492078428585513</v>
+        <v>0.05086048422858396</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>43474</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>32273</v>
+        <v>32741</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>57568</v>
+        <v>58892</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1440285699883151</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1069186893000171</v>
+        <v>0.1084709356231984</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1907202590647911</v>
+        <v>0.1951061177466604</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>33</v>
@@ -906,19 +906,19 @@
         <v>35831</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>25921</v>
+        <v>25336</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>48173</v>
+        <v>48116</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1843031063965754</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1333289175560235</v>
+        <v>0.1303217971755603</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2477844426660337</v>
+        <v>0.2474923480587794</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>75</v>
@@ -927,19 +927,19 @@
         <v>79305</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>63042</v>
+        <v>62790</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>97730</v>
+        <v>97129</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1598065217836483</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1270356415536309</v>
+        <v>0.126527360041391</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1969336888846316</v>
+        <v>0.1957221758239847</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>83336</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>68423</v>
+        <v>66796</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>101366</v>
+        <v>98305</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2760893394294944</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2266835818034629</v>
+        <v>0.2212930013857527</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3358229233259813</v>
+        <v>0.3256805625201413</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>46</v>
@@ -977,19 +977,19 @@
         <v>50713</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>38630</v>
+        <v>39008</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>65100</v>
+        <v>63895</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2608516259324428</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1987016400913973</v>
+        <v>0.2006442649323605</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3348505936519321</v>
+        <v>0.3286546234428591</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>126</v>
@@ -998,19 +998,19 @@
         <v>134049</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>113018</v>
+        <v>114438</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>152864</v>
+        <v>156317</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2701198130123444</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2277398783155555</v>
+        <v>0.2306023310300433</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3080335412437512</v>
+        <v>0.3149904800592641</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>163937</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>146596</v>
+        <v>147042</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>181949</v>
+        <v>181240</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5431181599776532</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.485668116914456</v>
+        <v>0.487146242872846</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6027929632498129</v>
+        <v>0.6004440006321652</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>79</v>
@@ -1048,19 +1048,19 @@
         <v>88238</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>74201</v>
+        <v>74442</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>103179</v>
+        <v>103219</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4538660603446962</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3816672448880066</v>
+        <v>0.3829043546126714</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5307203911802509</v>
+        <v>0.5309223912905546</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>229</v>
@@ -1069,19 +1069,19 @@
         <v>252175</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>227081</v>
+        <v>231409</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>274366</v>
+        <v>276046</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.508152758728435</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4575861050280414</v>
+        <v>0.466307053634394</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5528703356764139</v>
+        <v>0.5562542482623121</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>18668</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10456</v>
+        <v>9499</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>30437</v>
+        <v>30307</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07248701535715973</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0406018625788054</v>
+        <v>0.03688598328545645</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1181858484090934</v>
+        <v>0.1176830310840344</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>18</v>
@@ -1194,19 +1194,19 @@
         <v>19581</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>12073</v>
+        <v>12139</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>29262</v>
+        <v>30178</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1172262894391379</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07227585813485971</v>
+        <v>0.07267451924474956</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1751873940160032</v>
+        <v>0.180669902118982</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>32</v>
@@ -1215,19 +1215,19 @@
         <v>38249</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>26711</v>
+        <v>26092</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>53738</v>
+        <v>52781</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09008857550364123</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06291266093600889</v>
+        <v>0.0614559113323098</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1265722662672636</v>
+        <v>0.124317006786728</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>21367</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>13460</v>
+        <v>13461</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>33607</v>
+        <v>33280</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.08297025914868905</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.05226519227710261</v>
+        <v>0.05226935036142808</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1304950236350203</v>
+        <v>0.1292278053077192</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>10</v>
@@ -1265,19 +1265,19 @@
         <v>11748</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>6062</v>
+        <v>5899</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>21621</v>
+        <v>20695</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.07033458150085603</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.03629216025654209</v>
+        <v>0.03531679998704167</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1294410764435566</v>
+        <v>0.1238939275382984</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>29</v>
@@ -1286,19 +1286,19 @@
         <v>33116</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>22769</v>
+        <v>22660</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>47342</v>
+        <v>47792</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.07799906449536599</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.05362909234537572</v>
+        <v>0.05337208816490428</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1115068379726254</v>
+        <v>0.1125653794062179</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>59475</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>46324</v>
+        <v>46704</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>74069</v>
+        <v>75371</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2309430726206911</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.179877430619794</v>
+        <v>0.1813516965412559</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2876123713330123</v>
+        <v>0.2926668696444399</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>31</v>
@@ -1336,19 +1336,19 @@
         <v>34592</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>24049</v>
+        <v>23956</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>46572</v>
+        <v>46034</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2070967616347778</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1439736125206149</v>
+        <v>0.1434210636668128</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2788144349115639</v>
+        <v>0.2755960262257735</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>88</v>
@@ -1357,19 +1357,19 @@
         <v>94068</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>78242</v>
+        <v>78989</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>113934</v>
+        <v>113675</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.221561331729653</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.18428712374937</v>
+        <v>0.186047053879978</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.268353137030552</v>
+        <v>0.2677439245874355</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>76056</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>60656</v>
+        <v>58119</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>92558</v>
+        <v>92374</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2953273391204295</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2355281473127565</v>
+        <v>0.2256774997354583</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3594034532295251</v>
+        <v>0.3586879269429799</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>50</v>
@@ -1407,19 +1407,19 @@
         <v>52857</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>40072</v>
+        <v>41185</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>65554</v>
+        <v>67759</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.316440936285882</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2399007300918655</v>
+        <v>0.246562474414602</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3924566991326737</v>
+        <v>0.4056557349962844</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>118</v>
@@ -1428,19 +1428,19 @@
         <v>128913</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>109139</v>
+        <v>109596</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>149914</v>
+        <v>148525</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3036339613900562</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2570601553656399</v>
+        <v>0.258135039804494</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3530990000099362</v>
+        <v>0.3498270052540731</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>81965</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>66851</v>
+        <v>66569</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>98195</v>
+        <v>98781</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3182723137530307</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2595847782126982</v>
+        <v>0.2584886120731271</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3812905380303501</v>
+        <v>0.3835663148791699</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>43</v>
@@ -1478,19 +1478,19 @@
         <v>48257</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>36201</v>
+        <v>36795</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>61712</v>
+        <v>60224</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2889014311393462</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2167268024636576</v>
+        <v>0.2202825167637739</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3694553742311251</v>
+        <v>0.3605457101747217</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>116</v>
@@ -1499,19 +1499,19 @@
         <v>130222</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>111197</v>
+        <v>108605</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>152171</v>
+        <v>151274</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3067170668812836</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2619064380337493</v>
+        <v>0.255801776918583</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3584140933004034</v>
+        <v>0.35630257153948</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>7928</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3906</v>
+        <v>3838</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>15398</v>
+        <v>15151</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02825573896223689</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01392063040564502</v>
+        <v>0.01367754978209817</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05487718970334118</v>
+        <v>0.05399762250023644</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -1624,19 +1624,19 @@
         <v>3978</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1054</v>
+        <v>1011</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10262</v>
+        <v>10013</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0363128050489594</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.009620706424515842</v>
+        <v>0.0092283655883905</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09368559847804621</v>
+        <v>0.09140887508551132</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>12</v>
@@ -1645,19 +1645,19 @@
         <v>11906</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6013</v>
+        <v>5993</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>19705</v>
+        <v>19003</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03051800011669772</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01541234571946293</v>
+        <v>0.01536092857751485</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05050860221915963</v>
+        <v>0.04870867166732901</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>15350</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>9162</v>
+        <v>8793</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>25429</v>
+        <v>25586</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05470614182297728</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03265332206227302</v>
+        <v>0.03133768695539468</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.09062585868133773</v>
+        <v>0.09118704356490602</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -1698,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>5051</v>
+        <v>5552</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.009107323839737008</v>
@@ -1707,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04610876304755383</v>
+        <v>0.05068492741613838</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>15</v>
@@ -1716,19 +1716,19 @@
         <v>16348</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>9683</v>
+        <v>9410</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>26683</v>
+        <v>26325</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0419029162440275</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02482028858069848</v>
+        <v>0.02412083779240476</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.06839506610442958</v>
+        <v>0.06747696726694577</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>58128</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>45464</v>
+        <v>44824</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>72655</v>
+        <v>71923</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2071631903551216</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1620303085555141</v>
+        <v>0.1597475166158832</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2589349090013238</v>
+        <v>0.2563276715126995</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>13</v>
@@ -1766,19 +1766,19 @@
         <v>14011</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>8001</v>
+        <v>7944</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>23048</v>
+        <v>22342</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1279055981298512</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.073037980658167</v>
+        <v>0.07251939538865013</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2104049135133317</v>
+        <v>0.2039601282231667</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>71</v>
@@ -1787,19 +1787,19 @@
         <v>72139</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>58443</v>
+        <v>57488</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>89669</v>
+        <v>86711</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.184909261920452</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1498032763669669</v>
+        <v>0.1473549221215288</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2298440926737018</v>
+        <v>0.2222618581413594</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>59060</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>46245</v>
+        <v>45542</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>73668</v>
+        <v>71872</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2104865363696105</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1648137057989507</v>
+        <v>0.162306483429963</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2625459419565825</v>
+        <v>0.2561450445622681</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>18</v>
@@ -1837,19 +1837,19 @@
         <v>18603</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>11314</v>
+        <v>12244</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>27893</v>
+        <v>27805</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1698296264122544</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.103287071336388</v>
+        <v>0.1117784448562813</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2546307835917055</v>
+        <v>0.2538332724423014</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>77</v>
@@ -1858,19 +1858,19 @@
         <v>77664</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>61686</v>
+        <v>63335</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>92389</v>
+        <v>93752</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1990708985844732</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1581151915313896</v>
+        <v>0.1623416705358777</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2368163728680451</v>
+        <v>0.2403086191549792</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>140123</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>123273</v>
+        <v>122544</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>157470</v>
+        <v>157211</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4993883924900537</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4393355808165861</v>
+        <v>0.436736405274919</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.56120917391249</v>
+        <v>0.5602862098852621</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>68</v>
@@ -1908,19 +1908,19 @@
         <v>71951</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>62058</v>
+        <v>60600</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>82558</v>
+        <v>81340</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6568446465691979</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5665286986531564</v>
+        <v>0.5532207665980604</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7536751585337838</v>
+        <v>0.7425496047882937</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>203</v>
@@ -1929,19 +1929,19 @@
         <v>212075</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>192375</v>
+        <v>192899</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>232599</v>
+        <v>232079</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5435989231343497</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4931038904938453</v>
+        <v>0.4944463783355861</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5962072471644412</v>
+        <v>0.5948758125832125</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>50747</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>36936</v>
+        <v>36450</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>65643</v>
+        <v>65522</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1208408622699941</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.08795368452202217</v>
+        <v>0.08679668772763735</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1563132879722011</v>
+        <v>0.156024878949259</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>29</v>
@@ -2054,19 +2054,19 @@
         <v>29594</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>20181</v>
+        <v>21053</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>40161</v>
+        <v>40651</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09933851253201277</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06773941310687558</v>
+        <v>0.0706671426179538</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1348057206639703</v>
+        <v>0.136451324399244</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>74</v>
@@ -2075,19 +2075,19 @@
         <v>80341</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>64544</v>
+        <v>63831</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>99578</v>
+        <v>100078</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1119173143766466</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.08991225405801641</v>
+        <v>0.08891905769670708</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1387150634586478</v>
+        <v>0.1394121588375684</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>42172</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>30305</v>
+        <v>30805</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>57641</v>
+        <v>58167</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1004220305566455</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.07216408762958909</v>
+        <v>0.07335536445900681</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.137258318075662</v>
+        <v>0.1385117530816767</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>33</v>
@@ -2125,19 +2125,19 @@
         <v>34950</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>24391</v>
+        <v>25189</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>47175</v>
+        <v>46912</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.117314089386169</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.08187243898141069</v>
+        <v>0.08455059840934412</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1583500336904833</v>
+        <v>0.1574675433768725</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>71</v>
@@ -2146,19 +2146,19 @@
         <v>77121</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>61072</v>
+        <v>60239</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>94934</v>
+        <v>94936</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1074322921243028</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.08507482965901428</v>
+        <v>0.08391543858615458</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1322455187428836</v>
+        <v>0.1322487823891454</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>90195</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>74026</v>
+        <v>73709</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>108646</v>
+        <v>107943</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2147786081855581</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1762764200267317</v>
+        <v>0.1755194677089865</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2587157758523805</v>
+        <v>0.2570404221532048</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>68</v>
@@ -2196,19 +2196,19 @@
         <v>72826</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>57537</v>
+        <v>59482</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>87911</v>
+        <v>89480</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2444539737235102</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.193134450242367</v>
+        <v>0.1996615972694356</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2950899409800573</v>
+        <v>0.3003552395416087</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>156</v>
@@ -2217,19 +2217,19 @@
         <v>163021</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>138651</v>
+        <v>141096</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>186733</v>
+        <v>185780</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2270939852888686</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1931460235916353</v>
+        <v>0.1965518981159443</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2601247852317678</v>
+        <v>0.2587974117061371</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>99404</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>81969</v>
+        <v>83304</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>117511</v>
+        <v>119962</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2367064860894992</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.195190622407069</v>
+        <v>0.1983695765678647</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.279824593861043</v>
+        <v>0.2856600276165895</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>67</v>
@@ -2267,19 +2267,19 @@
         <v>71376</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>56520</v>
+        <v>56794</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>86461</v>
+        <v>87591</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.239587598412721</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1897194011365022</v>
+        <v>0.1906402898304586</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2902208510131278</v>
+        <v>0.2940153053612514</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>161</v>
@@ -2288,19 +2288,19 @@
         <v>170780</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>148833</v>
+        <v>148270</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>196989</v>
+        <v>198638</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2379021574517304</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2073291293657125</v>
+        <v>0.2065449162330208</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2744115866816113</v>
+        <v>0.2767088985844773</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>137428</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>118863</v>
+        <v>118827</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>158561</v>
+        <v>157867</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.327252012898303</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2830453929865949</v>
+        <v>0.2829593837532692</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3775749588650842</v>
+        <v>0.3759234671438532</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>83</v>
@@ -2338,19 +2338,19 @@
         <v>89167</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>74559</v>
+        <v>73970</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>106004</v>
+        <v>106762</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.299305825945587</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2502697194563562</v>
+        <v>0.2482926532765581</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3558214449092741</v>
+        <v>0.358364205231923</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>213</v>
@@ -2359,19 +2359,19 @@
         <v>226595</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>203025</v>
+        <v>202660</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>252622</v>
+        <v>254661</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3156542507584517</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2828200712688305</v>
+        <v>0.2823119594125771</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3519101758283738</v>
+        <v>0.3547506016646698</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>21948</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>13847</v>
+        <v>14564</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>31237</v>
+        <v>32641</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1444564120753998</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.09113917337253577</v>
+        <v>0.09585662622800745</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.205592985651943</v>
+        <v>0.2148356343955927</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>27</v>
@@ -2484,19 +2484,19 @@
         <v>28222</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>19122</v>
+        <v>19232</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>39624</v>
+        <v>39435</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1624031657044857</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1100392225489202</v>
+        <v>0.1106702977126922</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2280207351539757</v>
+        <v>0.2269291901891784</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>48</v>
@@ -2505,19 +2505,19 @@
         <v>50170</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>37049</v>
+        <v>38201</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>65516</v>
+        <v>65741</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1540314787703436</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1137473041986489</v>
+        <v>0.1172860421042555</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2011474093562732</v>
+        <v>0.2018392686438283</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>23378</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>15710</v>
+        <v>15202</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>34679</v>
+        <v>34015</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1538675098803986</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1034020686344366</v>
+        <v>0.1000565007575812</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2282466142200907</v>
+        <v>0.2238813367557056</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>17</v>
@@ -2555,19 +2555,19 @@
         <v>18228</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>10952</v>
+        <v>10910</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>27989</v>
+        <v>26902</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1048949333494072</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.06302227822484816</v>
+        <v>0.0627818475849545</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1610632940969964</v>
+        <v>0.1548100301347589</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>39</v>
@@ -2576,19 +2576,19 @@
         <v>41606</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>31071</v>
+        <v>29605</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>56709</v>
+        <v>55819</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1277393478629782</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.09539346819243273</v>
+        <v>0.09089280147119634</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1741073799120433</v>
+        <v>0.1713776729209005</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>35622</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>26157</v>
+        <v>25980</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>46880</v>
+        <v>47007</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2344582897236455</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1721590272458723</v>
+        <v>0.1709916518930229</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3085526394367624</v>
+        <v>0.3093862436382063</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>38</v>
@@ -2626,19 +2626,19 @@
         <v>44309</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>32470</v>
+        <v>32628</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>57913</v>
+        <v>57542</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2549763288422164</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1868521905624309</v>
+        <v>0.1877597637557507</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.333264889917251</v>
+        <v>0.3311276942014737</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>72</v>
@@ -2647,19 +2647,19 @@
         <v>79931</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>65409</v>
+        <v>63758</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>97079</v>
+        <v>96361</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2454052050861756</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2008199450101806</v>
+        <v>0.1957495652925</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2980524087247356</v>
+        <v>0.2958488645672142</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>29759</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>20920</v>
+        <v>21341</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>41801</v>
+        <v>39942</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.195864346488771</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1376924538960666</v>
+        <v>0.1404615122994992</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2751269519248971</v>
+        <v>0.2628870096584967</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>31</v>
@@ -2697,19 +2697,19 @@
         <v>32265</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>22021</v>
+        <v>22548</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>43269</v>
+        <v>43476</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.185673838531141</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1267192979326588</v>
+        <v>0.1297551533282799</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2489969732424531</v>
+        <v>0.250184466974132</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>60</v>
@@ -2718,19 +2718,19 @@
         <v>62024</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>47594</v>
+        <v>48295</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>76317</v>
+        <v>76799</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1904274415550829</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1461229415172978</v>
+        <v>0.1482750545586936</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2343092698622574</v>
+        <v>0.2357896361268838</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>41228</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>30643</v>
+        <v>30702</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>55234</v>
+        <v>53677</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2713534418317851</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2016849348170134</v>
+        <v>0.202075384878381</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3635346316298536</v>
+        <v>0.3532907508035882</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>45</v>
@@ -2768,19 +2768,19 @@
         <v>50751</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>38596</v>
+        <v>39133</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>65127</v>
+        <v>63748</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2920517335727497</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2221024308582301</v>
+        <v>0.2251906329265173</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3747772649711642</v>
+        <v>0.3668440585020481</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>82</v>
@@ -2789,19 +2789,19 @@
         <v>91979</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>76160</v>
+        <v>76014</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>110386</v>
+        <v>110874</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2823965267254197</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2338273444889589</v>
+        <v>0.2333786683349929</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3389079146092482</v>
+        <v>0.3404075432640117</v>
       </c>
     </row>
     <row r="33">
@@ -2893,19 +2893,19 @@
         <v>106200</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>87397</v>
+        <v>86607</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>129566</v>
+        <v>129461</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.07522095361761556</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.0619028901438648</v>
+        <v>0.06134331316952366</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.09177055125406466</v>
+        <v>0.09169609662818674</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>85</v>
@@ -2914,19 +2914,19 @@
         <v>89869</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>73826</v>
+        <v>72350</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>109638</v>
+        <v>109644</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.09533394981227525</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.0783149449410992</v>
+        <v>0.07674906949030405</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1163045972125653</v>
+        <v>0.1163107684416739</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>180</v>
@@ -2935,19 +2935,19 @@
         <v>196070</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>170349</v>
+        <v>171463</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>226347</v>
+        <v>226281</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.08327357661506653</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.07234948719144293</v>
+        <v>0.07282258876421793</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.09613262471602632</v>
+        <v>0.09610484384667578</v>
       </c>
     </row>
     <row r="35">
@@ -2964,19 +2964,19 @@
         <v>106454</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>85869</v>
+        <v>88527</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>128662</v>
+        <v>129913</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.07540071120087653</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.06082050452433265</v>
+        <v>0.062702982633789</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.09113046641747685</v>
+        <v>0.09201612864960805</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>72</v>
@@ -2985,19 +2985,19 @@
         <v>77061</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>61577</v>
+        <v>60263</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>97540</v>
+        <v>95711</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.08174643217928525</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.06532173201304209</v>
+        <v>0.06392710997800555</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1034711640844759</v>
+        <v>0.1015307020790547</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>168</v>
@@ -3006,19 +3006,19 @@
         <v>183515</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>160108</v>
+        <v>158224</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>211738</v>
+        <v>211797</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.07794134205426022</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.06800008971131921</v>
+        <v>0.06719980927360129</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.08992807625678156</v>
+        <v>0.08995306485937722</v>
       </c>
     </row>
     <row r="36">
@@ -3035,19 +3035,19 @@
         <v>286895</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>259848</v>
+        <v>256352</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>316934</v>
+        <v>316722</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2032055423802847</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.184048870366657</v>
+        <v>0.1815722912455053</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2244824102571963</v>
+        <v>0.2243317893349245</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>183</v>
@@ -3056,19 +3056,19 @@
         <v>201569</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>176009</v>
+        <v>175778</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>228145</v>
+        <v>227374</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2138259129828706</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1867118145863859</v>
+        <v>0.1864663687120892</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2420173455731182</v>
+        <v>0.241199909289925</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>462</v>
@@ -3077,19 +3077,19 @@
         <v>488464</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>448524</v>
+        <v>448400</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>530305</v>
+        <v>530749</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2074576110292383</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1904944677211192</v>
+        <v>0.1904420082448295</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2252281666701296</v>
+        <v>0.2254167168874897</v>
       </c>
     </row>
     <row r="37">
@@ -3106,19 +3106,19 @@
         <v>347615</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>315201</v>
+        <v>316675</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>383844</v>
+        <v>382787</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2462130434368883</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2232548428508132</v>
+        <v>0.2242985261588526</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2718741615156556</v>
+        <v>0.2711257073274976</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>212</v>
@@ -3127,19 +3127,19 @@
         <v>225815</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>200424</v>
+        <v>200741</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>252483</v>
+        <v>255425</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2395462771448153</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.212611158598557</v>
+        <v>0.2129477199828333</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2678360441654634</v>
+        <v>0.2709569704420894</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>542</v>
@@ -3148,19 +3148,19 @@
         <v>573430</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>530805</v>
+        <v>530736</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>615695</v>
+        <v>618159</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2435438759472414</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2254402614190791</v>
+        <v>0.2254113459184932</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2614945516840952</v>
+        <v>0.2625410071000623</v>
       </c>
     </row>
     <row r="38">
@@ -3177,19 +3177,19 @@
         <v>564681</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>532222</v>
+        <v>529047</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>607404</v>
+        <v>602755</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.399959749364335</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.3769689428107616</v>
+        <v>0.3747203558403966</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.4302202542700357</v>
+        <v>0.4269271323147212</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>318</v>
@@ -3198,19 +3198,19 @@
         <v>348365</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>320642</v>
+        <v>316269</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>380576</v>
+        <v>378832</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.3695474278807536</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.3401392641281529</v>
+        <v>0.3355005288077719</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.4037179503833256</v>
+        <v>0.4018674011908153</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>843</v>
@@ -3219,19 +3219,19 @@
         <v>913046</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>864428</v>
+        <v>868677</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>963244</v>
+        <v>960570</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.3877835943541936</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.3671351226360036</v>
+        <v>0.3689393572149648</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.4091036470984649</v>
+        <v>0.4079676634478853</v>
       </c>
     </row>
     <row r="39">
@@ -3564,19 +3564,19 @@
         <v>5002</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1211</v>
+        <v>1215</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12155</v>
+        <v>12751</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01811941944280381</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.004386614910886414</v>
+        <v>0.004402007897431779</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0440323311084496</v>
+        <v>0.04619212164250347</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -3585,19 +3585,19 @@
         <v>9562</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4162</v>
+        <v>4404</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>18650</v>
+        <v>18675</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04464472162208225</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01943464257571426</v>
+        <v>0.02056385450398925</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08707707649121457</v>
+        <v>0.08719543310357079</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>12</v>
@@ -3606,19 +3606,19 @@
         <v>14564</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7563</v>
+        <v>7912</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>25045</v>
+        <v>25143</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02970801034766379</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01542819752694529</v>
+        <v>0.01613999943845894</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05108843713406544</v>
+        <v>0.05128755275280174</v>
       </c>
     </row>
     <row r="5">
@@ -3635,19 +3635,19 @@
         <v>22466</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>14984</v>
+        <v>13536</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>34122</v>
+        <v>33835</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.08138316919167704</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05427972027762176</v>
+        <v>0.0490326094497948</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1236050885588141</v>
+        <v>0.1225656016759469</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>30</v>
@@ -3656,19 +3656,19 @@
         <v>29009</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>21111</v>
+        <v>20595</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>40908</v>
+        <v>40114</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1354449115677823</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.09857030157844339</v>
+        <v>0.09616204246638947</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1910043947564708</v>
+        <v>0.1872984825934237</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>50</v>
@@ -3677,19 +3677,19 @@
         <v>51475</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>39558</v>
+        <v>39902</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>66220</v>
+        <v>67396</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1050021052462505</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08069308472401929</v>
+        <v>0.08139458500049725</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1350811790664702</v>
+        <v>0.1374787336786533</v>
       </c>
     </row>
     <row r="6">
@@ -3706,19 +3706,19 @@
         <v>74289</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>58380</v>
+        <v>60178</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>90648</v>
+        <v>90838</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2691099334479852</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2114827960655878</v>
+        <v>0.2179949245216711</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3283722403436167</v>
+        <v>0.3290612639875637</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>54</v>
@@ -3727,19 +3727,19 @@
         <v>53975</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>41115</v>
+        <v>41984</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>68131</v>
+        <v>69260</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2520134036565462</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.191969623607381</v>
+        <v>0.1960269492487984</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3181098009231518</v>
+        <v>0.3233840589618175</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>122</v>
@@ -3748,19 +3748,19 @@
         <v>128263</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>107601</v>
+        <v>110519</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>148271</v>
+        <v>149518</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2616406617199325</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2194915924746032</v>
+        <v>0.2254447065031098</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3024533131804234</v>
+        <v>0.3049967917229796</v>
       </c>
     </row>
     <row r="7">
@@ -3777,19 +3777,19 @@
         <v>73434</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>58541</v>
+        <v>58403</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>89890</v>
+        <v>88528</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2660128084251434</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2120635558609198</v>
+        <v>0.2115638059770469</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3256246649182001</v>
+        <v>0.3206921507629681</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>55</v>
@@ -3798,19 +3798,19 @@
         <v>54391</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>42005</v>
+        <v>42694</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>67575</v>
+        <v>66999</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2539561022076628</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1961244261814669</v>
+        <v>0.1993414371662158</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3155147147319647</v>
+        <v>0.3128251202553936</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>122</v>
@@ -3819,19 +3819,19 @@
         <v>127824</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>107373</v>
+        <v>106879</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>147694</v>
+        <v>148079</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2607453760290814</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2190270953604435</v>
+        <v>0.2180191640508201</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3012757797353792</v>
+        <v>0.3020623445247379</v>
       </c>
     </row>
     <row r="8">
@@ -3848,19 +3848,19 @@
         <v>100863</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>84599</v>
+        <v>85401</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>116604</v>
+        <v>118072</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3653746694923906</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3064597823980194</v>
+        <v>0.3093645073435461</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4223969931066758</v>
+        <v>0.4277139368424664</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>62</v>
@@ -3869,19 +3869,19 @@
         <v>67238</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>53644</v>
+        <v>54692</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>80648</v>
+        <v>82572</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3139408609459264</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2504710265985117</v>
+        <v>0.2553627583358359</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3765540960983803</v>
+        <v>0.3855367250311064</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>155</v>
@@ -3890,19 +3890,19 @@
         <v>168101</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>146114</v>
+        <v>148946</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>189909</v>
+        <v>190953</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3429038466570717</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2980541655424865</v>
+        <v>0.3038312350143212</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3873898971347705</v>
+        <v>0.3895203867156087</v>
       </c>
     </row>
     <row r="9">
@@ -3994,19 +3994,19 @@
         <v>24547</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>15987</v>
+        <v>15498</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>35100</v>
+        <v>34864</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1009190863620653</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06572424704700783</v>
+        <v>0.0637168085438075</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1443019395094087</v>
+        <v>0.1433338830081898</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>28</v>
@@ -4015,19 +4015,19 @@
         <v>28481</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>19817</v>
+        <v>19391</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>38834</v>
+        <v>39012</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1505528108443861</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1047530571193059</v>
+        <v>0.1025042536484047</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2052782012743433</v>
+        <v>0.2062211761545427</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>51</v>
@@ -4036,19 +4036,19 @@
         <v>53028</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>40451</v>
+        <v>40107</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>67936</v>
+        <v>68969</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1226333151336326</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09354605095936709</v>
+        <v>0.09275143776934644</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1571095677437754</v>
+        <v>0.1594973084521014</v>
       </c>
     </row>
     <row r="11">
@@ -4065,19 +4065,19 @@
         <v>29764</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>20123</v>
+        <v>21030</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>41225</v>
+        <v>42461</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1223651982200462</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.08272876613415632</v>
+        <v>0.08645853362404152</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1694857800445985</v>
+        <v>0.1745667030170681</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>35</v>
@@ -4086,19 +4086,19 @@
         <v>36717</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>25969</v>
+        <v>26940</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>48901</v>
+        <v>49501</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1940910092268564</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1372744664915283</v>
+        <v>0.1424060830005623</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2584961972689216</v>
+        <v>0.2616679692645794</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>63</v>
@@ -4107,19 +4107,19 @@
         <v>66481</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>53298</v>
+        <v>53254</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>84158</v>
+        <v>83746</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1537444808604782</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1232572189328874</v>
+        <v>0.1231562041826318</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1946243089835024</v>
+        <v>0.1936718146235632</v>
       </c>
     </row>
     <row r="12">
@@ -4136,19 +4136,19 @@
         <v>73818</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>59185</v>
+        <v>59890</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>89927</v>
+        <v>89817</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3034824139086562</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2433233514477824</v>
+        <v>0.2462224526298922</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3697109134846223</v>
+        <v>0.3692581762375064</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>39</v>
@@ -4157,19 +4157,19 @@
         <v>40953</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>30939</v>
+        <v>29870</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>52732</v>
+        <v>55505</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2164824558794565</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1635436733401701</v>
+        <v>0.157897745081122</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2787475652306501</v>
+        <v>0.2934035547697243</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>106</v>
@@ -4178,19 +4178,19 @@
         <v>114771</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>97055</v>
+        <v>97651</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>136159</v>
+        <v>135175</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2654208537201659</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2244489437395279</v>
+        <v>0.2258284094185873</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3148815019947647</v>
+        <v>0.3126063988542673</v>
       </c>
     </row>
     <row r="13">
@@ -4207,19 +4207,19 @@
         <v>59576</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>46448</v>
+        <v>46182</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>74706</v>
+        <v>74856</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.244929000755241</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1909577602428889</v>
+        <v>0.189865861433725</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3071328346935837</v>
+        <v>0.3077511603991065</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>46</v>
@@ -4228,19 +4228,19 @@
         <v>47635</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>36762</v>
+        <v>36894</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>59307</v>
+        <v>60491</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2518043496709531</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1943268068384676</v>
+        <v>0.1950233927329443</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3135038619475093</v>
+        <v>0.3197578100239347</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>102</v>
@@ -4249,19 +4249,19 @@
         <v>107211</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>89018</v>
+        <v>87620</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>124272</v>
+        <v>126078</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2479368930864581</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2058630518953573</v>
+        <v>0.2026303762422747</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2873929799048489</v>
+        <v>0.2915695224130073</v>
       </c>
     </row>
     <row r="14">
@@ -4278,19 +4278,19 @@
         <v>55532</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>41448</v>
+        <v>42751</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>70701</v>
+        <v>70154</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2283043007539914</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1704036791091407</v>
+        <v>0.1757571508000498</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2906652186934066</v>
+        <v>0.2884163185592159</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>34</v>
@@ -4299,19 +4299,19 @@
         <v>35389</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>25664</v>
+        <v>24884</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>47357</v>
+        <v>48254</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.187069374378348</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1356617051461827</v>
+        <v>0.1315390869900178</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2503355853736867</v>
+        <v>0.2550742559196731</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>83</v>
@@ -4320,19 +4320,19 @@
         <v>90921</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>73395</v>
+        <v>74589</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>109008</v>
+        <v>108950</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2102644571992651</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1697344922235995</v>
+        <v>0.1724947742729976</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2520932379437284</v>
+        <v>0.2519588395981096</v>
       </c>
     </row>
     <row r="15">
@@ -4424,19 +4424,19 @@
         <v>8023</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3680</v>
+        <v>3242</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16715</v>
+        <v>15260</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03708781249137393</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01700968892888014</v>
+        <v>0.01498705968126647</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07726630366025705</v>
+        <v>0.07054257689156784</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -4448,7 +4448,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6554</v>
+        <v>6346</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02765249263063896</v>
@@ -4457,7 +4457,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.100641404802038</v>
+        <v>0.09745956180628959</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>9</v>
@@ -4466,19 +4466,19 @@
         <v>9824</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4968</v>
+        <v>4661</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>18926</v>
+        <v>17687</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0349047494238611</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01765165817867848</v>
+        <v>0.01656035417863566</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06724690455071149</v>
+        <v>0.06284559190814866</v>
       </c>
     </row>
     <row r="17">
@@ -4495,19 +4495,19 @@
         <v>21544</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>13586</v>
+        <v>12983</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>31746</v>
+        <v>32762</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0995915580768775</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06280450275522309</v>
+        <v>0.06001788991302642</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1467509027693246</v>
+        <v>0.1514484415207688</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -4519,7 +4519,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>4726</v>
+        <v>4672</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0144331811304237</v>
@@ -4528,7 +4528,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.07257244393122009</v>
+        <v>0.07175269812350402</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>21</v>
@@ -4537,19 +4537,19 @@
         <v>22484</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>15074</v>
+        <v>14715</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>33718</v>
+        <v>33289</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0798883460665686</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05356104039244742</v>
+        <v>0.05228493145042965</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1198055892676236</v>
+        <v>0.1182798866564652</v>
       </c>
     </row>
     <row r="18">
@@ -4566,19 +4566,19 @@
         <v>59151</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>46365</v>
+        <v>46101</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>73318</v>
+        <v>72994</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2734381060879172</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2143293062552387</v>
+        <v>0.2131088328640454</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3389243357321032</v>
+        <v>0.3374262447741208</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>11</v>
@@ -4587,19 +4587,19 @@
         <v>10543</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>5727</v>
+        <v>5432</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>17199</v>
+        <v>16589</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1618991269666718</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.08794477677768263</v>
+        <v>0.08341958151086593</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2641272658858418</v>
+        <v>0.2547546029877624</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>67</v>
@@ -4608,19 +4608,19 @@
         <v>69694</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>55978</v>
+        <v>54928</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>84930</v>
+        <v>85899</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2476311774939026</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1988952727108862</v>
+        <v>0.1951656870073848</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3017657903179951</v>
+        <v>0.3052081505425604</v>
       </c>
     </row>
     <row r="19">
@@ -4637,19 +4637,19 @@
         <v>55047</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>43634</v>
+        <v>42404</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>68781</v>
+        <v>68235</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2544640484980523</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2017063179388736</v>
+        <v>0.196018834219336</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3179535190997923</v>
+        <v>0.3154272900086022</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>20</v>
@@ -4658,19 +4658,19 @@
         <v>21438</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>14257</v>
+        <v>14261</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>30080</v>
+        <v>29465</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3292172481335806</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2189471629626997</v>
+        <v>0.2190079167395863</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4619368369364188</v>
+        <v>0.4524909631580501</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>73</v>
@@ -4679,19 +4679,19 @@
         <v>76485</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>63607</v>
+        <v>62155</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>93157</v>
+        <v>93758</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2717598001748824</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2260021118580245</v>
+        <v>0.2208435229378332</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.330998078777035</v>
+        <v>0.3331331242617389</v>
       </c>
     </row>
     <row r="20">
@@ -4708,19 +4708,19 @@
         <v>72559</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>59004</v>
+        <v>57764</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>87159</v>
+        <v>87814</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.335418474845779</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2727553212029028</v>
+        <v>0.2670221974003478</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4029059951982271</v>
+        <v>0.4059349735943144</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>30</v>
@@ -4729,19 +4729,19 @@
         <v>30397</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>22492</v>
+        <v>23129</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>38666</v>
+        <v>39037</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.466797951138685</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3454089014696509</v>
+        <v>0.3551810632690052</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5937765918651826</v>
+        <v>0.599488174114731</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>97</v>
@@ -4750,19 +4750,19 @@
         <v>102956</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>87570</v>
+        <v>87756</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>121288</v>
+        <v>120358</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3658159268407853</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3111448898460075</v>
+        <v>0.3118060190130049</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4309516265667889</v>
+        <v>0.4276456395245834</v>
       </c>
     </row>
     <row r="21">
@@ -4854,19 +4854,19 @@
         <v>59061</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>46171</v>
+        <v>45848</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>74515</v>
+        <v>76135</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1211004716266678</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.09467143669763016</v>
+        <v>0.09400868361239823</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1527885446348483</v>
+        <v>0.1561092412386106</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>46</v>
@@ -4875,19 +4875,19 @@
         <v>48996</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>37943</v>
+        <v>36220</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>63847</v>
+        <v>63453</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1342567800144448</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1039691799640856</v>
+        <v>0.09924808623202039</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1749516180577205</v>
+        <v>0.1738722460553195</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>102</v>
@@ -4896,19 +4896,19 @@
         <v>108057</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>89210</v>
+        <v>89348</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>128525</v>
+        <v>128041</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1267315365250545</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.104627355942671</v>
+        <v>0.1047898965101395</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1507368021597737</v>
+        <v>0.150169930545282</v>
       </c>
     </row>
     <row r="23">
@@ -4925,19 +4925,19 @@
         <v>83021</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>67597</v>
+        <v>67942</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>100697</v>
+        <v>99112</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1702300726047191</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1386041057797545</v>
+        <v>0.1393102964605314</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2064719714697059</v>
+        <v>0.2032228645161274</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>52</v>
@@ -4946,19 +4946,19 @@
         <v>51473</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>38803</v>
+        <v>40637</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>65216</v>
+        <v>67318</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1410448216164086</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1063262318170054</v>
+        <v>0.1113517327224457</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1787016296971616</v>
+        <v>0.1844608503427401</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>132</v>
@@ -4967,19 +4967,19 @@
         <v>134494</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>114936</v>
+        <v>113905</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>158165</v>
+        <v>157320</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.157738419357706</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1347995947537605</v>
+        <v>0.1335904071336251</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1854996878223562</v>
+        <v>0.1845092347492974</v>
       </c>
     </row>
     <row r="24">
@@ -4996,19 +4996,19 @@
         <v>135571</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>116856</v>
+        <v>115118</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>156470</v>
+        <v>155854</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2779806664331693</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2396063873207757</v>
+        <v>0.2360419926290453</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3208325782606292</v>
+        <v>0.3195680522298144</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>111</v>
@@ -5017,19 +5017,19 @@
         <v>109232</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>92938</v>
+        <v>93717</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>127505</v>
+        <v>127241</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2993145434980657</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2546662197984289</v>
+        <v>0.2567996777361612</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3493844089141951</v>
+        <v>0.348660374648726</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>237</v>
@@ -5038,19 +5038,19 @@
         <v>244804</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>218974</v>
+        <v>218485</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>271020</v>
+        <v>270504</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2871118332275144</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.256817990268659</v>
+        <v>0.2562441460847846</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3178595392884981</v>
+        <v>0.31725435762693</v>
       </c>
     </row>
     <row r="25">
@@ -5067,19 +5067,19 @@
         <v>103875</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>87714</v>
+        <v>86777</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>124494</v>
+        <v>124592</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2129887939237271</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1798517056749461</v>
+        <v>0.1779311356884448</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2552666820368074</v>
+        <v>0.2554680651116087</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>84</v>
@@ -5088,19 +5088,19 @@
         <v>84291</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>68755</v>
+        <v>68318</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>102006</v>
+        <v>101933</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2309722669066448</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1883999689668541</v>
+        <v>0.1872018665093812</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2795133568724864</v>
+        <v>0.2793124454151084</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>183</v>
@@ -5109,19 +5109,19 @@
         <v>188166</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>166496</v>
+        <v>167391</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>212350</v>
+        <v>214084</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2206859457751746</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.195271125466505</v>
+        <v>0.196320256583375</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.249049601880328</v>
+        <v>0.2510835805051269</v>
       </c>
     </row>
     <row r="26">
@@ -5138,19 +5138,19 @@
         <v>106173</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>90167</v>
+        <v>89003</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>127216</v>
+        <v>126346</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2176999954117167</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1848812133324777</v>
+        <v>0.1824945021138675</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2608489089589852</v>
+        <v>0.2590635565859116</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>67</v>
@@ -5159,19 +5159,19 @@
         <v>70949</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>56879</v>
+        <v>56971</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>88144</v>
+        <v>86358</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1944115879644361</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1558568364291962</v>
+        <v>0.1561101566873909</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2415279106678111</v>
+        <v>0.2366346278472104</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>169</v>
@@ -5180,19 +5180,19 @@
         <v>177121</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>154653</v>
+        <v>155020</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>202134</v>
+        <v>202796</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2077322651145504</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1813808058012613</v>
+        <v>0.1818113270901707</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.23706831477514</v>
+        <v>0.2378441920472983</v>
       </c>
     </row>
     <row r="27">
@@ -5284,19 +5284,19 @@
         <v>38781</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>27851</v>
+        <v>27626</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>51680</v>
+        <v>51188</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2009154686375759</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1442901832585256</v>
+        <v>0.143121250359502</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2677413014020288</v>
+        <v>0.2651924210755528</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>30</v>
@@ -5305,19 +5305,19 @@
         <v>31131</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>21510</v>
+        <v>21928</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>42583</v>
+        <v>42901</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1575283032296383</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1088444097688348</v>
+        <v>0.1109606587121727</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2154794540977296</v>
+        <v>0.2170876980904358</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>64</v>
@@ -5326,19 +5326,19 @@
         <v>69912</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>54882</v>
+        <v>54997</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>87263</v>
+        <v>85926</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1789665830160974</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1404923984434564</v>
+        <v>0.1407860917894711</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2233856070681664</v>
+        <v>0.2199623604308916</v>
       </c>
     </row>
     <row r="29">
@@ -5355,19 +5355,19 @@
         <v>37701</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>27767</v>
+        <v>26435</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>52419</v>
+        <v>50877</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1953183386958895</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1438533444481215</v>
+        <v>0.1369534498527172</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2715681967753916</v>
+        <v>0.2635793721195241</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>37</v>
@@ -5376,19 +5376,19 @@
         <v>38885</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>28417</v>
+        <v>28941</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>51214</v>
+        <v>51031</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1967656297083277</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1437953704325605</v>
+        <v>0.146446983682257</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2591527275773171</v>
+        <v>0.2582308936436228</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>72</v>
@@ -5397,19 +5397,19 @@
         <v>76585</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>61418</v>
+        <v>63109</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>94325</v>
+        <v>93595</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1960505004906121</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1572233001219804</v>
+        <v>0.1615535085386258</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.241462956300489</v>
+        <v>0.2395935989458075</v>
       </c>
     </row>
     <row r="30">
@@ -5426,19 +5426,19 @@
         <v>53292</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>42223</v>
+        <v>41421</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>67708</v>
+        <v>68093</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2760924318088645</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.218746687703575</v>
+        <v>0.2145918497841433</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3507769983536417</v>
+        <v>0.3527733494424952</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>58</v>
@@ -5447,19 +5447,19 @@
         <v>59217</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>46445</v>
+        <v>47281</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>73869</v>
+        <v>71494</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2996498377480069</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2350250414127389</v>
+        <v>0.2392538624189649</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3737953513680394</v>
+        <v>0.3617783778556403</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>107</v>
@@ -5468,19 +5468,19 @@
         <v>112508</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>94520</v>
+        <v>94866</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>131704</v>
+        <v>130150</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2880097535245251</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2419610264841971</v>
+        <v>0.2428466995805354</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.337148193871777</v>
+        <v>0.3331716867914219</v>
       </c>
     </row>
     <row r="31">
@@ -5497,19 +5497,19 @@
         <v>27093</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>18451</v>
+        <v>18730</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>38270</v>
+        <v>37687</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1403630995094731</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.09559170002060756</v>
+        <v>0.09703569259987292</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1982699160547487</v>
+        <v>0.1952455929292794</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>34</v>
@@ -5518,19 +5518,19 @@
         <v>33585</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>24241</v>
+        <v>24234</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>45242</v>
+        <v>43245</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1699481237900664</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1226662875693022</v>
+        <v>0.1226309251820815</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.22893440153431</v>
+        <v>0.2188323881735331</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>59</v>
@@ -5539,19 +5539,19 @@
         <v>60678</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>46867</v>
+        <v>46460</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>75326</v>
+        <v>76418</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1553296986854729</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1199758124051108</v>
+        <v>0.1189320752040097</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1928266787209261</v>
+        <v>0.1956213863984185</v>
       </c>
     </row>
     <row r="32">
@@ -5568,19 +5568,19 @@
         <v>36155</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>26329</v>
+        <v>26540</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>48556</v>
+        <v>48019</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.187310661348197</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1364017233242603</v>
+        <v>0.1374959476642529</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.251558245806992</v>
+        <v>0.2487761221251388</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>33</v>
@@ -5589,19 +5589,19 @@
         <v>34802</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>24625</v>
+        <v>25956</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>45779</v>
+        <v>46797</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1761081055239607</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1246074833830125</v>
+        <v>0.1313431526341672</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2316545549049271</v>
+        <v>0.2368030592285023</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>66</v>
@@ -5610,19 +5610,19 @@
         <v>70957</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>56611</v>
+        <v>55442</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>86571</v>
+        <v>85451</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1816434642832925</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1449190440058666</v>
+        <v>0.1419265849304292</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2216130954141077</v>
+        <v>0.2187449710224888</v>
       </c>
     </row>
     <row r="33">
@@ -5714,19 +5714,19 @@
         <v>135414</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>113787</v>
+        <v>113524</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>159998</v>
+        <v>159135</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.09560859630778333</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.08033867189712543</v>
+        <v>0.08015320157799609</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1129657734908821</v>
+        <v>0.1123568478719251</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>114</v>
@@ -5735,19 +5735,19 @@
         <v>119970</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>99347</v>
+        <v>101592</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>141956</v>
+        <v>143829</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1163593720319195</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.09635715867439144</v>
+        <v>0.09853457007833195</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1376836543869552</v>
+        <v>0.1395000117693254</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>238</v>
@@ -5756,19 +5756,19 @@
         <v>255384</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>225283</v>
+        <v>223193</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>286542</v>
+        <v>284824</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1043505045854575</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.0920511609809441</v>
+        <v>0.09119722699904587</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1170819709120874</v>
+        <v>0.1163796684531366</v>
       </c>
     </row>
     <row r="35">
@@ -5785,19 +5785,19 @@
         <v>194496</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>169006</v>
+        <v>170405</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>223786</v>
+        <v>224635</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1373231902961236</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.119326315643979</v>
+        <v>0.1203139885982938</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1580031602093279</v>
+        <v>0.1586031114324928</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>155</v>
@@ -5806,19 +5806,19 @@
         <v>157024</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>136211</v>
+        <v>135660</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>182900</v>
+        <v>181703</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1522981532496857</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1321115710904771</v>
+        <v>0.1315770302740311</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1773959993977711</v>
+        <v>0.176234573357641</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>338</v>
@@ -5827,19 +5827,19 @@
         <v>351520</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>318932</v>
+        <v>316839</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>391615</v>
+        <v>385497</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.143631858190854</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1303165029879703</v>
+        <v>0.1294613195282704</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.160014837171911</v>
+        <v>0.1575151822063158</v>
       </c>
     </row>
     <row r="36">
@@ -5856,19 +5856,19 @@
         <v>396121</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>361457</v>
+        <v>363342</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>431677</v>
+        <v>435729</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2796801439401208</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2552057843563842</v>
+        <v>0.256536487177198</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3047838513065165</v>
+        <v>0.3076451323028218</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>273</v>
@@ -5877,19 +5877,19 @@
         <v>273919</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>243974</v>
+        <v>244687</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>300195</v>
+        <v>302255</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2656758345879059</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2366312383360339</v>
+        <v>0.2373234580727089</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2911608437449857</v>
+        <v>0.2931581369327637</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>639</v>
@@ -5898,19 +5898,19 @@
         <v>670041</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>623857</v>
+        <v>625008</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>718133</v>
+        <v>715226</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2737803939993588</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2549097570154484</v>
+        <v>0.2553800667613205</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2934311938327374</v>
+        <v>0.2922432167388479</v>
       </c>
     </row>
     <row r="37">
@@ -5927,19 +5927,19 @@
         <v>319024</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>288166</v>
+        <v>290682</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>353448</v>
+        <v>352353</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2252459535106222</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2034585079881952</v>
+        <v>0.2052349759058956</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2495505276002287</v>
+        <v>0.2487773756758838</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>239</v>
@@ -5948,19 +5948,19 @@
         <v>241341</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>215784</v>
+        <v>216018</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>268737</v>
+        <v>269773</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2340773813389935</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2092894873246365</v>
+        <v>0.2095164819240304</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.260649690282482</v>
+        <v>0.2616539597442759</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>539</v>
@@ -5969,19 +5969,19 @@
         <v>560365</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>520078</v>
+        <v>518231</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>602451</v>
+        <v>605249</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2289664665682002</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2125052104129796</v>
+        <v>0.2117506359481955</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2461630111866664</v>
+        <v>0.2473062801357957</v>
       </c>
     </row>
     <row r="38">
@@ -5998,19 +5998,19 @@
         <v>371282</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>338142</v>
+        <v>337651</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>405560</v>
+        <v>406789</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.2621421159453501</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.2387438008944741</v>
+        <v>0.2383970651318025</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2863444081615271</v>
+        <v>0.2872121426571494</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>226</v>
@@ -6019,19 +6019,19 @@
         <v>238775</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>211948</v>
+        <v>209440</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>266161</v>
+        <v>266141</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.2315892587914954</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.205569643851681</v>
+        <v>0.203136643246128</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2581504096924981</v>
+        <v>0.258131586499176</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>570</v>
@@ -6040,19 +6040,19 @@
         <v>610057</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>564723</v>
+        <v>570551</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>656057</v>
+        <v>655805</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.2492707766561296</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.2307472682508576</v>
+        <v>0.2331287564789155</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2680665070360709</v>
+        <v>0.2679636829244172</v>
       </c>
     </row>
     <row r="39">
@@ -6385,19 +6385,19 @@
         <v>12766</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6752</v>
+        <v>6974</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>21217</v>
+        <v>23150</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1318676440970474</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06974837907470247</v>
+        <v>0.0720415227738007</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.219173997194736</v>
+        <v>0.2391411593894459</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -6406,19 +6406,19 @@
         <v>12696</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7863</v>
+        <v>7374</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>20092</v>
+        <v>19839</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1480909553768148</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09171934742993319</v>
+        <v>0.08601417233532511</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2343589050816681</v>
+        <v>0.2314054231599429</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>26</v>
@@ -6427,19 +6427,19 @@
         <v>25462</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>16856</v>
+        <v>17267</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>36798</v>
+        <v>36681</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1394871819791724</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09234000486154778</v>
+        <v>0.09459477708712907</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2015906780154997</v>
+        <v>0.2009479863934442</v>
       </c>
     </row>
     <row r="5">
@@ -6456,19 +6456,19 @@
         <v>3917</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1250</v>
+        <v>1204</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>11693</v>
+        <v>10165</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04046176569781487</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01291572451755451</v>
+        <v>0.01244068632858776</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1207839076001434</v>
+        <v>0.105007692593969</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>6</v>
@@ -6477,19 +6477,19 @@
         <v>4253</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1503</v>
+        <v>1881</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8926</v>
+        <v>9116</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04960421503784092</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01752918093433445</v>
+        <v>0.02194606669760278</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1041099636145865</v>
+        <v>0.1063363016742459</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>9</v>
@@ -6498,19 +6498,19 @@
         <v>8170</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>3661</v>
+        <v>3861</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>15383</v>
+        <v>15630</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04475566340343392</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02005655143956318</v>
+        <v>0.02115066073144506</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08427042644475527</v>
+        <v>0.08562649302964859</v>
       </c>
     </row>
     <row r="6">
@@ -6527,19 +6527,19 @@
         <v>19486</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11797</v>
+        <v>11661</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>28836</v>
+        <v>30089</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2012896379922264</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1218585280471972</v>
+        <v>0.1204599935624224</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2978784001155871</v>
+        <v>0.3108213640393822</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>21</v>
@@ -6548,19 +6548,19 @@
         <v>16233</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>10724</v>
+        <v>10612</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>23301</v>
+        <v>23446</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.1893417233731598</v>
+        <v>0.1893417233731599</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1250859445531008</v>
+        <v>0.1237851205119282</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2717896107004354</v>
+        <v>0.2734797637029935</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>38</v>
@@ -6569,19 +6569,19 @@
         <v>35719</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>26085</v>
+        <v>25159</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>47539</v>
+        <v>47086</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1956781086020514</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.142902035859296</v>
+        <v>0.1378262844848054</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2604301094095438</v>
+        <v>0.2579526199264155</v>
       </c>
     </row>
     <row r="7">
@@ -6598,19 +6598,19 @@
         <v>23413</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>14967</v>
+        <v>15414</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>32840</v>
+        <v>33553</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2418549032417658</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1546038910052242</v>
+        <v>0.1592299265108143</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3392327058843797</v>
+        <v>0.3466039907476551</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>30</v>
@@ -6619,19 +6619,19 @@
         <v>23322</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>16557</v>
+        <v>16401</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>31312</v>
+        <v>30901</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.2720309661565831</v>
+        <v>0.2720309661565832</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.193120969700334</v>
+        <v>0.1913094983167057</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3652355981252415</v>
+        <v>0.3604395222788948</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>52</v>
@@ -6640,19 +6640,19 @@
         <v>46735</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>35475</v>
+        <v>35576</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>58828</v>
+        <v>58774</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2560275743166028</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1943438003253694</v>
+        <v>0.1948970371705716</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3222761978242336</v>
+        <v>0.3219794398067961</v>
       </c>
     </row>
     <row r="8">
@@ -6669,19 +6669,19 @@
         <v>37224</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>26275</v>
+        <v>26841</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>49645</v>
+        <v>50036</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3845260489711456</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2714207282648852</v>
+        <v>0.277270168188519</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5128271761815004</v>
+        <v>0.5168681669604832</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>37</v>
@@ -6690,19 +6690,19 @@
         <v>29229</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>21527</v>
+        <v>21342</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>37233</v>
+        <v>37423</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3409321400556012</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2510969024878395</v>
+        <v>0.2489387204662172</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4342896763310541</v>
+        <v>0.4365156625226046</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>64</v>
@@ -6711,19 +6711,19 @@
         <v>66454</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>52265</v>
+        <v>53491</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>80324</v>
+        <v>81309</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3640514716987394</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2863247943572179</v>
+        <v>0.2930366610077317</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4400361191581023</v>
+        <v>0.4454340557469226</v>
       </c>
     </row>
     <row r="9">
@@ -6815,19 +6815,19 @@
         <v>17098</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10000</v>
+        <v>9822</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>26262</v>
+        <v>26433</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2324173717363135</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1359301969074097</v>
+        <v>0.1335142441663694</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3569815399243193</v>
+        <v>0.3593075940535425</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>19</v>
@@ -6836,19 +6836,19 @@
         <v>15145</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9165</v>
+        <v>10113</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>21716</v>
+        <v>22298</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.2291328166056921</v>
+        <v>0.229132816605692</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1386626033507666</v>
+        <v>0.1530059304499891</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3285535757761742</v>
+        <v>0.3373490618439012</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>33</v>
@@ -6857,19 +6857,19 @@
         <v>32243</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>23028</v>
+        <v>23253</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>42388</v>
+        <v>43527</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.2308629203663526</v>
+        <v>0.2308629203663525</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1648814522746748</v>
+        <v>0.166494418945106</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3035005210093915</v>
+        <v>0.3116605972978621</v>
       </c>
     </row>
     <row r="11">
@@ -6886,19 +6886,19 @@
         <v>6660</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2596</v>
+        <v>2470</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>13520</v>
+        <v>13959</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.09052757220487412</v>
+        <v>0.09052757220487413</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03529124888458117</v>
+        <v>0.03357877457369181</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1837801290524239</v>
+        <v>0.1897472036710505</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>14</v>
@@ -6907,19 +6907,19 @@
         <v>11703</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>6895</v>
+        <v>7252</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>18675</v>
+        <v>18892</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1770521398789118</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1043165996564072</v>
+        <v>0.1097165535628166</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2825342490576868</v>
+        <v>0.2858208581660545</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>19</v>
@@ -6928,19 +6928,19 @@
         <v>18362</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>11386</v>
+        <v>11773</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>27906</v>
+        <v>26963</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.1314762630952423</v>
+        <v>0.1314762630952422</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.08152204182967684</v>
+        <v>0.08429222575113871</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1998090064223285</v>
+        <v>0.1930595833611915</v>
       </c>
     </row>
     <row r="12">
@@ -6957,19 +6957,19 @@
         <v>21996</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>14810</v>
+        <v>14464</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>30174</v>
+        <v>31143</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2989915935470649</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2013181094394629</v>
+        <v>0.1966109023168862</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4101604152752644</v>
+        <v>0.4233358140917088</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>27</v>
@@ -6978,19 +6978,19 @@
         <v>18574</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>12896</v>
+        <v>13004</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>26323</v>
+        <v>25787</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.2810133939624858</v>
+        <v>0.2810133939624857</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1951086954160852</v>
+        <v>0.1967414678215962</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3982521538985829</v>
+        <v>0.390136036195981</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>47</v>
@@ -6999,19 +6999,19 @@
         <v>40570</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>30555</v>
+        <v>31235</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>51465</v>
+        <v>51328</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2904832154373044</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2187765237018566</v>
+        <v>0.2236441340778191</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3684948814649615</v>
+        <v>0.3675154589239141</v>
       </c>
     </row>
     <row r="13">
@@ -7028,19 +7028,19 @@
         <v>11636</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6106</v>
+        <v>5728</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>19215</v>
+        <v>19370</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.158177097988425</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08299561385920708</v>
+        <v>0.07786482141309653</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2611872441556235</v>
+        <v>0.2632957707539675</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>12</v>
@@ -7049,19 +7049,19 @@
         <v>8893</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4732</v>
+        <v>4819</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>15094</v>
+        <v>14903</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1345432144197126</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0715866450924386</v>
+        <v>0.07291410963173632</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2283548287902058</v>
+        <v>0.2254672972693629</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>22</v>
@@ -7070,19 +7070,19 @@
         <v>20529</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>13513</v>
+        <v>13019</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>29715</v>
+        <v>29382</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1469921060397794</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.096751166038332</v>
+        <v>0.09321415078378187</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2127604992794868</v>
+        <v>0.2103767047658367</v>
       </c>
     </row>
     <row r="14">
@@ -7099,19 +7099,19 @@
         <v>16176</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>9609</v>
+        <v>8940</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>24689</v>
+        <v>24087</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2198863645233225</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1306218810640608</v>
+        <v>0.1215236781716849</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3356050697648993</v>
+        <v>0.3274172742909759</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>12</v>
@@ -7120,19 +7120,19 @@
         <v>11782</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>6166</v>
+        <v>5947</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>19863</v>
+        <v>20006</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.1782584351331977</v>
+        <v>0.1782584351331976</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.09328500968429428</v>
+        <v>0.08997628854994345</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3005194919031137</v>
+        <v>0.3026801085899703</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>26</v>
@@ -7141,19 +7141,19 @@
         <v>27959</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>19112</v>
+        <v>19030</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>39831</v>
+        <v>38550</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.2001854950613215</v>
+        <v>0.2001854950613214</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1368440455642135</v>
+        <v>0.1362553503234794</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2851917882583913</v>
+        <v>0.2760232709345621</v>
       </c>
     </row>
     <row r="15">
@@ -7248,16 +7248,16 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9783</v>
+        <v>11114</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.03974013928477219</v>
+        <v>0.03974013928477218</v>
       </c>
       <c r="H16" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1411361959856213</v>
+        <v>0.1603371798930191</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -7266,19 +7266,19 @@
         <v>3068</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>762</v>
+        <v>784</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8125</v>
+        <v>8356</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1098365343193868</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.027280891910603</v>
+        <v>0.02806889991242386</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2908815299562922</v>
+        <v>0.2991773743846423</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -7287,19 +7287,19 @@
         <v>5823</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1832</v>
+        <v>1661</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>13537</v>
+        <v>13785</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05987277356200734</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01883606319324646</v>
+        <v>0.01707704032479533</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1392043262667362</v>
+        <v>0.1417513909761585</v>
       </c>
     </row>
     <row r="17">
@@ -7316,19 +7316,19 @@
         <v>8513</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3453</v>
+        <v>3368</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>17928</v>
+        <v>17406</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1228097598657264</v>
+        <v>0.1228097598657263</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04981490165253663</v>
+        <v>0.04858106486927057</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2586398142218172</v>
+        <v>0.2510988907420478</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2</v>
@@ -7340,16 +7340,16 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>5322</v>
+        <v>5009</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.05640466790559497</v>
+        <v>0.05640466790559498</v>
       </c>
       <c r="O17" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1905493337747512</v>
+        <v>0.1793506626370795</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8</v>
@@ -7358,19 +7358,19 @@
         <v>10088</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4610</v>
+        <v>4473</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>19734</v>
+        <v>20252</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1037373178390101</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04740340767650898</v>
+        <v>0.04599601425833395</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2029226838103305</v>
+        <v>0.2082477854087967</v>
       </c>
     </row>
     <row r="18">
@@ -7387,19 +7387,19 @@
         <v>24737</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>15371</v>
+        <v>15779</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>35795</v>
+        <v>35426</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.35686139038783</v>
+        <v>0.3568613903878299</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2217448022197714</v>
+        <v>0.2276263532559292</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5163840087548255</v>
+        <v>0.5110622303249229</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>2</v>
@@ -7411,16 +7411,16 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>4481</v>
+        <v>4927</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.04968050141077644</v>
+        <v>0.04968050141077646</v>
       </c>
       <c r="O18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1604157208109386</v>
+        <v>0.1763933375296745</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>18</v>
@@ -7429,19 +7429,19 @@
         <v>26124</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>16399</v>
+        <v>16607</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>38852</v>
+        <v>38091</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2686348775739105</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1686315097015897</v>
+        <v>0.1707650077876262</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3995103534914399</v>
+        <v>0.3916819329074369</v>
       </c>
     </row>
     <row r="19">
@@ -7458,19 +7458,19 @@
         <v>13684</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7582</v>
+        <v>7996</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>21847</v>
+        <v>22113</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1974057539208286</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1093742847916377</v>
+        <v>0.1153549861725688</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3151663099566129</v>
+        <v>0.3190115163756147</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>11</v>
@@ -7479,19 +7479,19 @@
         <v>8320</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4174</v>
+        <v>4349</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>13180</v>
+        <v>13738</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2978656438261844</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1494417741457267</v>
+        <v>0.1557122418972555</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4718795048295396</v>
+        <v>0.4918426580411289</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>24</v>
@@ -7500,19 +7500,19 @@
         <v>22003</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>14919</v>
+        <v>15019</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>31792</v>
+        <v>31250</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2262591952710876</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1534096426527947</v>
+        <v>0.1544377616806633</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3269095024453358</v>
+        <v>0.32133601404881</v>
       </c>
     </row>
     <row r="20">
@@ -7529,19 +7529,19 @@
         <v>19630</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>12162</v>
+        <v>11761</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>29046</v>
+        <v>28382</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.2831829565408427</v>
+        <v>0.2831829565408426</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1754532662845433</v>
+        <v>0.1696634941978503</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4190241245141809</v>
+        <v>0.4094530842867047</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>16</v>
@@ -7550,19 +7550,19 @@
         <v>13580</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>8887</v>
+        <v>8935</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>19412</v>
+        <v>19390</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.4862126525380573</v>
+        <v>0.4862126525380575</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3181939252909796</v>
+        <v>0.3199103993736978</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6949872071417441</v>
+        <v>0.6941969437256594</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>34</v>
@@ -7571,19 +7571,19 @@
         <v>33210</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>23510</v>
+        <v>24149</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>44748</v>
+        <v>44008</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3414958357539845</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2417479820487934</v>
+        <v>0.2483164392387033</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.460140291117189</v>
+        <v>0.4525280586915271</v>
       </c>
     </row>
     <row r="21">
@@ -7675,19 +7675,19 @@
         <v>20924</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>12862</v>
+        <v>13049</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>33025</v>
+        <v>32341</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1563721707166862</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0961239964730872</v>
+        <v>0.09752033645600094</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2468095844927735</v>
+        <v>0.2416989399916888</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>34</v>
@@ -7696,19 +7696,19 @@
         <v>28154</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>20509</v>
+        <v>19741</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>37496</v>
+        <v>37133</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.2467185124942054</v>
+        <v>0.2467185124942055</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1797255557526448</v>
+        <v>0.1729998635742039</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3285858702805884</v>
+        <v>0.3254043013805961</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>51</v>
@@ -7717,19 +7717,19 @@
         <v>49077</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>36496</v>
+        <v>37207</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>61952</v>
+        <v>61417</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1979565233408078</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1472098055215951</v>
+        <v>0.1500791187319729</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2498890858473057</v>
+        <v>0.2477285034162372</v>
       </c>
     </row>
     <row r="23">
@@ -7746,19 +7746,19 @@
         <v>23141</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>14336</v>
+        <v>14596</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>35308</v>
+        <v>34785</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1729387637891827</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1071351035215702</v>
+        <v>0.1090840643872684</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2638735079404687</v>
+        <v>0.2599602285636028</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>20</v>
@@ -7767,19 +7767,19 @@
         <v>18947</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>12673</v>
+        <v>11163</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>27979</v>
+        <v>26928</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1660347873150943</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1110546181816002</v>
+        <v>0.09782828749255673</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2451875757464696</v>
+        <v>0.2359828200575899</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>39</v>
@@ -7788,19 +7788,19 @@
         <v>42087</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>29761</v>
+        <v>30383</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>56178</v>
+        <v>56468</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1697610214859678</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1200421552829589</v>
+        <v>0.1225522638388582</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2265997650749779</v>
+        <v>0.2277676600901772</v>
       </c>
     </row>
     <row r="24">
@@ -7817,19 +7817,19 @@
         <v>37357</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>27546</v>
+        <v>27734</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>50143</v>
+        <v>50122</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2791807991041522</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2058608454846686</v>
+        <v>0.2072690513196834</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3747419816778823</v>
+        <v>0.3745790213374346</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>47</v>
@@ -7838,19 +7838,19 @@
         <v>33574</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>25154</v>
+        <v>25748</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>41702</v>
+        <v>43006</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.2942188079863892</v>
+        <v>0.2942188079863893</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2204307494901477</v>
+        <v>0.2256407245093658</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3654453869906459</v>
+        <v>0.3768742480981135</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>81</v>
@@ -7859,19 +7859,19 @@
         <v>70930</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>58814</v>
+        <v>57656</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>86445</v>
+        <v>87242</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.2861024502946735</v>
+        <v>0.2861024502946736</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2372321907826638</v>
+        <v>0.2325585523060789</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3486818205342052</v>
+        <v>0.3518974950476905</v>
       </c>
     </row>
     <row r="25">
@@ -7888,19 +7888,19 @@
         <v>25525</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>16927</v>
+        <v>16562</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>37074</v>
+        <v>36907</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1907550026767598</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1264994218073074</v>
+        <v>0.1237774541906264</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.277071255557438</v>
+        <v>0.2758240961860041</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>26</v>
@@ -7909,19 +7909,19 @@
         <v>20112</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>13533</v>
+        <v>13146</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>29086</v>
+        <v>28181</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1762515909152462</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1185938202233213</v>
+        <v>0.1152044343677352</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2548931140611129</v>
+        <v>0.246962136627169</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>49</v>
@@ -7930,19 +7930,19 @@
         <v>45637</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>33862</v>
+        <v>33329</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>57762</v>
+        <v>59232</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.1840794143012083</v>
+        <v>0.1840794143012082</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.13658330333201</v>
+        <v>0.1344331437210703</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2329885782195464</v>
+        <v>0.2389182804068714</v>
       </c>
     </row>
     <row r="26">
@@ -7959,19 +7959,19 @@
         <v>26862</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>18535</v>
+        <v>17485</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>40708</v>
+        <v>38564</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2007532637132192</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1385156643826218</v>
+        <v>0.1306734387977184</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3042280652271553</v>
+        <v>0.2882048503323637</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>18</v>
@@ -7980,19 +7980,19 @@
         <v>13326</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>8471</v>
+        <v>8275</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>20541</v>
+        <v>19451</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.1167763012890647</v>
+        <v>0.1167763012890648</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.07423338342025183</v>
+        <v>0.07251432836875787</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1800105381913865</v>
+        <v>0.1704510976165925</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>39</v>
@@ -8001,19 +8001,19 @@
         <v>40188</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>29185</v>
+        <v>29660</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>54951</v>
+        <v>53694</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1621005905773426</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1177205037399577</v>
+        <v>0.1196338404602059</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2216480746770605</v>
+        <v>0.2165802873029214</v>
       </c>
     </row>
     <row r="27">
@@ -8105,19 +8105,19 @@
         <v>24238</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>14677</v>
+        <v>14521</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>38220</v>
+        <v>37299</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2571264496818467</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1557010116841084</v>
+        <v>0.1540502443997869</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4054526143203703</v>
+        <v>0.3956893751261218</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>32</v>
@@ -8126,19 +8126,19 @@
         <v>26128</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>18847</v>
+        <v>18865</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>34937</v>
+        <v>33559</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.3068344075311042</v>
+        <v>0.3068344075311041</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.221320911226351</v>
+        <v>0.2215400606522337</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4102804963283811</v>
+        <v>0.3940977753536141</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>48</v>
@@ -8147,19 +8147,19 @@
         <v>50366</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>38526</v>
+        <v>38865</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>65190</v>
+        <v>66061</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.280718603183523</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.214728868818555</v>
+        <v>0.2166130884914508</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3633400138937624</v>
+        <v>0.3681961633438806</v>
       </c>
     </row>
     <row r="29">
@@ -8176,19 +8176,19 @@
         <v>19326</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>10783</v>
+        <v>10675</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>30780</v>
+        <v>31738</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.2050161922268202</v>
+        <v>0.2050161922268203</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1143914292011566</v>
+        <v>0.1132487732664134</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3265256145015911</v>
+        <v>0.3366875637635349</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>17</v>
@@ -8197,19 +8197,19 @@
         <v>13757</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>7898</v>
+        <v>8417</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>20826</v>
+        <v>21570</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1615520968604906</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.0927496026888785</v>
+        <v>0.09883856086703834</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2445662583554491</v>
+        <v>0.2533064805161125</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>31</v>
@@ -8218,19 +8218,19 @@
         <v>33083</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>22926</v>
+        <v>23094</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>45612</v>
+        <v>45235</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.1843874709101334</v>
+        <v>0.1843874709101335</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1277772373882753</v>
+        <v>0.128715488575586</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2542212990918114</v>
+        <v>0.2521186699411206</v>
       </c>
     </row>
     <row r="30">
@@ -8247,19 +8247,19 @@
         <v>27099</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>17185</v>
+        <v>17358</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>39151</v>
+        <v>39083</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.2874768502529828</v>
+        <v>0.2874768502529829</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1823049590086782</v>
+        <v>0.1841406565001372</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4153368828279376</v>
+        <v>0.4146151803722691</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>37</v>
@@ -8268,19 +8268,19 @@
         <v>27509</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>20126</v>
+        <v>20357</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>35719</v>
+        <v>36366</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3230511854516673</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2363450820974571</v>
+        <v>0.2390539905644178</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4194573877452107</v>
+        <v>0.4270621125761705</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>58</v>
@@ -8289,19 +8289,19 @@
         <v>54608</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>42829</v>
+        <v>42726</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>69631</v>
+        <v>70080</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3043609712879408</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2387080538980343</v>
+        <v>0.2381374049509906</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3880933841534118</v>
+        <v>0.390593764616071</v>
       </c>
     </row>
     <row r="31">
@@ -8318,19 +8318,19 @@
         <v>8359</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>3158</v>
+        <v>3296</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>16301</v>
+        <v>16275</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.08868081205759037</v>
+        <v>0.08868081205759036</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.03350026254944054</v>
+        <v>0.03496417291896846</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1729341409714376</v>
+        <v>0.1726487399453926</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>12</v>
@@ -8339,19 +8339,19 @@
         <v>7981</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>4323</v>
+        <v>4141</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>13662</v>
+        <v>13280</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.09372326157348078</v>
+        <v>0.09372326157348075</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.05076120028069771</v>
+        <v>0.04862423785416801</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1604340704642642</v>
+        <v>0.1559508660708056</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>19</v>
@@ -8360,19 +8360,19 @@
         <v>16340</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>9637</v>
+        <v>10261</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>25882</v>
+        <v>25922</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.0910740353592617</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.05371169179149672</v>
+        <v>0.05719259078602201</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1442564394738663</v>
+        <v>0.1444752603641091</v>
       </c>
     </row>
     <row r="32">
@@ -8389,19 +8389,19 @@
         <v>15242</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>7840</v>
+        <v>7841</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>30711</v>
+        <v>29858</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1616996957807598</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.08317407915024019</v>
+        <v>0.08318027731953748</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3257959658386915</v>
+        <v>0.3167506782860911</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>13</v>
@@ -8410,19 +8410,19 @@
         <v>9779</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>5124</v>
+        <v>5296</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>15693</v>
+        <v>15652</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1148390485832571</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.06017027268889294</v>
+        <v>0.06219582386332671</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1842859249014814</v>
+        <v>0.1838001941766391</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>23</v>
@@ -8431,19 +8431,19 @@
         <v>25022</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>15748</v>
+        <v>15750</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>38782</v>
+        <v>39987</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.139458919259141</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.08777096512526029</v>
+        <v>0.08778371624191128</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2161555346875006</v>
+        <v>0.2228696887318498</v>
       </c>
     </row>
     <row r="33">
@@ -8535,19 +8535,19 @@
         <v>77780</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>59981</v>
+        <v>60790</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>100197</v>
+        <v>99196</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1662809231022594</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1282288588972815</v>
+        <v>0.1299598229264614</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2142041339777404</v>
+        <v>0.2120651508183208</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>103</v>
@@ -8556,19 +8556,19 @@
         <v>85191</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>71202</v>
+        <v>71060</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>102240</v>
+        <v>101012</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2247621730916686</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1878536293764416</v>
+        <v>0.1874791272930001</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.269744106515218</v>
+        <v>0.2665042095988603</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>163</v>
@@ -8577,19 +8577,19 @@
         <v>162971</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>139192</v>
+        <v>139182</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>187599</v>
+        <v>186603</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1924574240921947</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1643768730090265</v>
+        <v>0.1643651113181101</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2215423911687744</v>
+        <v>0.2203653664976383</v>
       </c>
     </row>
     <row r="35">
@@ -8606,19 +8606,19 @@
         <v>61556</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>45484</v>
+        <v>44912</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>82017</v>
+        <v>79099</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1315964290960132</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.09723805200847906</v>
+        <v>0.0960147093138078</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1753386948857265</v>
+        <v>0.1691016544132891</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>59</v>
@@ -8627,19 +8627,19 @@
         <v>50234</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>36987</v>
+        <v>38400</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>62042</v>
+        <v>64229</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.1325345898917762</v>
+        <v>0.1325345898917763</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.09758502241074116</v>
+        <v>0.1013113200104108</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1636882386531787</v>
+        <v>0.1694567558965921</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>106</v>
@@ -8648,19 +8648,19 @@
         <v>111790</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>91294</v>
+        <v>91514</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>132763</v>
+        <v>134944</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1320163545764613</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1078123807149844</v>
+        <v>0.1080724247151102</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1567842540302384</v>
+        <v>0.1593599053733318</v>
       </c>
     </row>
     <row r="36">
@@ -8677,19 +8677,19 @@
         <v>130674</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>110309</v>
+        <v>108966</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>154981</v>
+        <v>152285</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.279359738750615</v>
+        <v>0.2793597387506149</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2358218928236238</v>
+        <v>0.2329512441417444</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3313254195140674</v>
+        <v>0.3255617467111027</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>134</v>
@@ -8698,19 +8698,19 @@
         <v>97278</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>83066</v>
+        <v>82733</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>112881</v>
+        <v>111991</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2566509368007664</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2191566971175545</v>
+        <v>0.2182783770682891</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2978178000262195</v>
+        <v>0.2954689254372985</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>242</v>
@@ -8719,19 +8719,19 @@
         <v>227951</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>201550</v>
+        <v>202998</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>255458</v>
+        <v>256285</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2691951650312073</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.23801712017261</v>
+        <v>0.2397270931436317</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3016787997527957</v>
+        <v>0.3026550994107701</v>
       </c>
     </row>
     <row r="37">
@@ -8748,19 +8748,19 @@
         <v>82617</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>63832</v>
+        <v>66767</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>100016</v>
+        <v>103385</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1766223403305514</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1364618687009219</v>
+        <v>0.1427377803215303</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2138179906294728</v>
+        <v>0.221020518470101</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>91</v>
@@ -8769,19 +8769,19 @@
         <v>68628</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>56097</v>
+        <v>54772</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>82732</v>
+        <v>82996</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1810631978224359</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1480028226539742</v>
+        <v>0.1445060146654705</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2182751032832517</v>
+        <v>0.2189721275643292</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>166</v>
@@ -8790,19 +8790,19 @@
         <v>151245</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>127861</v>
+        <v>128841</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>175122</v>
+        <v>176012</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1786100904308575</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1509957048299008</v>
+        <v>0.1521524631578904</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2068078904567785</v>
+        <v>0.2078587726104082</v>
       </c>
     </row>
     <row r="38">
@@ -8819,19 +8819,19 @@
         <v>115135</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>93565</v>
+        <v>93950</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>139914</v>
+        <v>139151</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.2461405687205611</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.2000261586189281</v>
+        <v>0.2008506893387768</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.299114215391972</v>
+        <v>0.2974814121664722</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>96</v>
@@ -8840,19 +8840,19 @@
         <v>77696</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>63896</v>
+        <v>64014</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>93941</v>
+        <v>91876</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.2049891023933529</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1685802948065655</v>
+        <v>0.1688905552552002</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2478474935266946</v>
+        <v>0.2424007396838829</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>186</v>
@@ -8861,19 +8861,19 @@
         <v>192831</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>168559</v>
+        <v>167445</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>221440</v>
+        <v>220606</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.2277209658692791</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.199057205675544</v>
+        <v>0.1977411680532095</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.261506155034775</v>
+        <v>0.2605213359731872</v>
       </c>
     </row>
     <row r="39">
